--- a/SIM_CALC/AFE.xlsx
+++ b/SIM_CALC/AFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\FMC boards\FMC_DAC_125M_14B_16CHA\Shuttler\SIM_CALC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A69CC7B-1361-45D7-8560-658A6920AFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227E153-CA94-4A42-8FF2-F726DCF93708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{E4857C80-8F2D-4CCD-98C8-6C7F6EF51EBD}"/>
+    <workbookView xWindow="31875" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{E4857C80-8F2D-4CCD-98C8-6C7F6EF51EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,14 +440,14 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4020</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
       <c r="C3">
         <f>B3/A3*32</f>
-        <v>9.9502487562189053E-3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -478,18 +478,18 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="C6">
         <f>C3</f>
-        <v>9.9502487562189053E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D6">
         <f>2*B6*C6</f>
-        <v>9.9303482587064682</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F6">
         <f>1.25/2</f>
@@ -497,15 +497,15 @@
       </c>
       <c r="G6">
         <f>F6*(1+(B6/A6))</f>
-        <v>3.4602272727272725</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="H6">
         <f>G6-B6*C6</f>
-        <v>-1.5049468566259616</v>
+        <v>-1.303529411764706</v>
       </c>
       <c r="I6">
         <f>G6-B6*C6/2</f>
-        <v>0.97764020805065543</v>
+        <v>1.1864705882352942</v>
       </c>
     </row>
   </sheetData>
